--- a/contents/2aexcel/03/03_2.xlsx
+++ b/contents/2aexcel/03/03_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maru/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u2140024\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB4733F-75EE-BE47-8A44-9D81DB8B70A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D0AFDB-B798-4741-B10A-AA6B989B98DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="1460" windowWidth="11440" windowHeight="15560" xr2:uid="{4FFCCE64-4B23-E445-9021-054532F6CDCF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{4FFCCE64-4B23-E445-9021-054532F6CDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,12 +80,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -103,8 +103,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,18 +426,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99A64FD-9677-6A4A-B8C0-42268170A04A}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -442,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>27</v>
       </c>
@@ -450,7 +455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>98</v>
       </c>
@@ -458,7 +463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>48</v>
       </c>
@@ -466,7 +471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>74</v>
       </c>
@@ -474,7 +479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>91</v>
       </c>
@@ -482,7 +487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -490,7 +495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>88</v>
       </c>
@@ -498,7 +503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>78</v>
       </c>
@@ -506,7 +511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>93</v>
       </c>
@@ -514,12 +519,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>72</v>
       </c>
